--- a/BackTest/2020-01-21 BackTest FAB.xlsx
+++ b/BackTest/2020-01-21 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1663461.908896581</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1649366.908896581</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1754484.508041266</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-1753518.508041266</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1793908.416241266</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1799063.973541266</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1805532.530341266</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1787599.627141266</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1802677.985841266</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1789405.359741266</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1789405.359741266</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1783883.201846529</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1789014.321646529</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1729158.328546529</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1734589.088246529</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1729709.088246529</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1734874.221746529</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1736401.154546529</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1714968.879146529</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-1714929.879146529</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-1740229.587441435</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1740200.587441435</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-1740293.206141435</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1804657.159141435</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1419470.897141435</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1490583.841986537</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1406595.944537661</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1493915.958837661</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1445617.134237661</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1445675.134237661</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1445646.134237661</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1451497.869237661</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1301898.448837661</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1305610.728537661</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1293660.469337662</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1300874.974137662</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-1423664.074137662</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-1418376.074137662</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1425761.025637662</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-1420698.025637662</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1430161.025637662</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1429275.025637662</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1431285.766437662</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-1431285.766437662</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1422221.389256018</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1429842.806356018</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-1429792.806356018</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1563072.026756018</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-1799019.328656018</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2286289.696056018</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2286289.696056018</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2285737.269356018</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2297648.868456018</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-2908237.28520993</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2434856.445909929</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2434956.72350993</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2435264.52520993</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2396073.595779184</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2396216.693379184</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2400880.171779184</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2400880.171779184</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2421591.825479184</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2419545.719579184</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2431875.069537918</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2493931.840837918</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2493931.840837918</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2393187.681237918</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2393187.681237918</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2395165.309137919</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2392317.007137918</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2398951.366937919</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2401451.593137919</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2382966.130037919</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2363354.359037919</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2397254.751537919</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2397254.751537919</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-3240475.04400985</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3749562.212633598</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-3761386.051809248</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3782688.089209247</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3282272.186939012</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-2968310.977270789</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-2990516.706970789</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-2965648.803670789</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-2958905.312170789</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-2994066.738070789</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-2994066.738070789</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-3013696.672605072</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-3008096.787539355</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-3241903.564739355</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-3241877.564739355</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-3220827.217539355</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-3220827.217539355</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-3454271.674939355</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2951415.801213636</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-3110479.329850331</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-3211512.735750331</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-3208832.819250331</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-3232176.228050331</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-3170061.522450331</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -19030,11 +19030,17 @@
         <v>-4192005.172128488</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>18.72</v>
+      </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +19069,17 @@
         <v>-4191789.244128488</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>18.7</v>
+      </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +19108,17 @@
         <v>-4191789.244128488</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>18.71</v>
+      </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19147,17 @@
         <v>-4143558.249028489</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>18.71</v>
+      </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +19186,17 @@
         <v>-3958137.010828489</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>18.72</v>
+      </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19225,17 @@
         <v>-3993681.512428489</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>18.84</v>
+      </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +19264,17 @@
         <v>-3913032.130528489</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>18.54</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19303,17 @@
         <v>-3912975.130528489</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>18.71</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +19342,17 @@
         <v>-3914327.074528489</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>18.9</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +19381,17 @@
         <v>-3899290.847828489</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>18.73</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19420,17 @@
         <v>-3861144.097039845</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>18.9</v>
+      </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +19459,17 @@
         <v>-3861174.097039845</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>19.02</v>
+      </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +19498,17 @@
         <v>-3861174.097039845</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>19.01</v>
+      </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +19541,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +19578,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +19615,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +19652,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +19689,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +19726,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +19763,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +19800,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +19837,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +19874,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +19911,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +19948,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,14 +19981,16 @@
         <v>-3428053.220970996</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L590" t="inlineStr"/>
       <c r="M590" t="inlineStr"/>
     </row>
     <row r="591">
@@ -20482,7 +20610,7 @@
         <v>-3714495.714070996</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20643,7 @@
         <v>-3711446.038170996</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20676,7 @@
         <v>-3666549.275870996</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20709,7 @@
         <v>-3650347.205970996</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20742,7 @@
         <v>-3650347.205970996</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20775,7 @@
         <v>-3616246.713370996</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20808,7 @@
         <v>-3668715.768770996</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20841,7 @@
         <v>-3668715.768770996</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20874,7 @@
         <v>-3668715.768770996</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20907,7 @@
         <v>-3668715.768770996</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20940,7 @@
         <v>-3668741.706170996</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20973,7 @@
         <v>-3682392.918970996</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +21006,7 @@
         <v>-3682392.918970996</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +21039,7 @@
         <v>-3682419.344970996</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21010,7 +21138,7 @@
         <v>-3495145.930405284</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21171,7 @@
         <v>-3496156.554726103</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21204,7 @@
         <v>-3610520.621626103</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21237,7 @@
         <v>-3610520.621626103</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21736,7 +21864,7 @@
         <v>-3197070.559226103</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21897,7 @@
         <v>-3197070.559226103</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21930,7 @@
         <v>-3193902.614326103</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21963,7 @@
         <v>-3199496.070926103</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21967,7 +22095,7 @@
         <v>-3179591.343526103</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22128,7 @@
         <v>-3253698.508726103</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -26026,10 +26154,14 @@
         <v>-4109319.431088535</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="J777" t="n">
+        <v>18.17</v>
+      </c>
       <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
@@ -26062,8 +26194,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26095,8 +26233,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26128,8 +26272,14 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26161,8 +26311,14 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26194,8 +26350,14 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26227,8 +26389,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26260,8 +26428,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26293,8 +26467,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26326,8 +26506,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26359,8 +26545,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26392,8 +26584,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26425,8 +26623,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26458,8 +26662,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26491,8 +26701,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26524,8 +26740,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26557,8 +26779,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26590,8 +26818,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26623,8 +26857,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26656,8 +26896,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26689,8 +26935,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26722,8 +26974,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26755,8 +27013,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26788,8 +27052,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26821,8 +27091,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26854,8 +27130,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26887,8 +27169,14 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26920,8 +27208,14 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26953,8 +27247,14 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26983,15 +27283,23 @@
         <v>-2801067.852798717</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L806" t="n">
-        <v>1</v>
-      </c>
-      <c r="M806" t="inlineStr"/>
+        <v>1.081406164006604</v>
+      </c>
+      <c r="M806" t="n">
+        <v>1.152375434530707</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
@@ -27016,7 +27324,7 @@
         <v>-2859921.600898717</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27357,7 @@
         <v>-3048872.285998716</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27390,7 @@
         <v>-2927490.826698716</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27115,7 +27423,7 @@
         <v>-2825110.720898716</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27148,7 +27456,7 @@
         <v>-2938741.017498716</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27489,7 @@
         <v>-2955263.983498716</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27522,7 @@
         <v>-2955263.983498716</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27555,7 @@
         <v>-3062063.892398716</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27588,7 @@
         <v>-3086653.765998716</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27621,7 @@
         <v>-2954087.414298716</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27654,7 @@
         <v>-2954058.414298716</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27687,7 @@
         <v>-2987111.608998716</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27720,7 @@
         <v>-2987111.608998716</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27753,7 @@
         <v>-2997317.954198716</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27786,7 @@
         <v>-3028186.417898716</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +27819,7 @@
         <v>-3028186.417898716</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +27852,7 @@
         <v>-3028186.417898716</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +27885,7 @@
         <v>-3073347.075398717</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29722,11 +30030,17 @@
         <v>-5131021.342228957</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>17.5</v>
+      </c>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +30069,17 @@
         <v>-5131021.342228957</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>17.5</v>
+      </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30112,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +30149,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +30186,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +30223,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +30260,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29953,15 +30293,15 @@
         <v>-3644565.633943968</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="J896" t="n">
-        <v>17.69</v>
-      </c>
-      <c r="K896" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,17 +30330,13 @@
         <v>-3481068.197343968</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="J897" t="n">
-        <v>17.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L897" t="n">
@@ -30031,14 +30367,10 @@
         <v>-3336275.997543968</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>17.64</v>
-      </c>
-      <c r="J898" t="n">
-        <v>17.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30072,14 +30404,10 @@
         <v>-3246657.334543968</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="J899" t="n">
-        <v>17.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30113,14 +30441,10 @@
         <v>-2873696.778843968</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="J900" t="n">
-        <v>17.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30157,9 +30481,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30196,9 +30518,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30235,9 +30555,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30274,9 +30592,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30313,9 +30629,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30352,9 +30666,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30391,9 +30703,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30430,9 +30740,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30469,9 +30777,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30508,9 +30814,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30547,9 +30851,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30586,9 +30888,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30625,9 +30925,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30664,9 +30962,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30703,9 +30999,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30742,9 +31036,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30781,9 +31073,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>17.69</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30795,6 +31085,6 @@
       <c r="M917" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FAB.xlsx
+++ b/BackTest/2020-01-21 BackTest FAB.xlsx
@@ -5203,7 +5203,7 @@
         <v>-2908237.28520993</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-2434856.445909929</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2434956.72350993</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2435264.52520993</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2396073.595779184</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2396216.693379184</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2400880.171779184</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2400880.171779184</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2421591.825479184</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2419545.719579184</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2431875.069537918</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2393187.681237918</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2392317.007137918</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2398951.366937919</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2401451.593137919</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2382966.130037919</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2363354.359037919</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2397254.751537919</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2397254.751537919</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-3240475.04400985</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-3749562.212633598</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-3761386.051809248</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-3782688.089209247</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3282272.186939012</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-3008096.787539355</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-3241877.564739355</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-3220827.217539355</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-3220827.217539355</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-3454271.674939355</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-3161182.695046969</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-3161373.695046969</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-3149991.924513636</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-2951115.801213636</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-2951415.801213636</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-3110479.329850331</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-3211512.735750331</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-3208832.819250331</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-3232176.228050331</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-3170061.522450331</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -19030,212 +19030,208 @@
         <v>-4192005.172128488</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="C566" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D566" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="E566" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F566" t="n">
+        <v>215.928</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-4191789.244128488</v>
+      </c>
+      <c r="H566" t="n">
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J566" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="C567" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="D567" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="E567" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F567" t="n">
+        <v>358.892</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-4191789.244128488</v>
+      </c>
+      <c r="H567" t="n">
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J567" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="C568" t="n">
         <v>18.72</v>
       </c>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
+      <c r="D568" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E568" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F568" t="n">
+        <v>48230.9951</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-4143558.249028489</v>
+      </c>
+      <c r="H568" t="n">
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J568" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="C569" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="D569" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="E569" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="F569" t="n">
+        <v>185421.2382</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-3958137.010828489</v>
+      </c>
+      <c r="H569" t="n">
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J569" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="C570" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="D570" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="E570" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="F570" t="n">
+        <v>35544.5016</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-3993681.512428489</v>
+      </c>
+      <c r="H570" t="n">
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="J570" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="K570" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="C566" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D566" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="E566" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F566" t="n">
-        <v>215.928</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-4191789.244128488</v>
-      </c>
-      <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="C567" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="D567" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="E567" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F567" t="n">
-        <v>358.892</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-4191789.244128488</v>
-      </c>
-      <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="C568" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="D568" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="E568" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="F568" t="n">
-        <v>48230.9951</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-4143558.249028489</v>
-      </c>
-      <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="C569" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="D569" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="E569" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="F569" t="n">
-        <v>185421.2382</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-3958137.010828489</v>
-      </c>
-      <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="C570" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="D570" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="E570" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="F570" t="n">
-        <v>35544.5016</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-3993681.512428489</v>
-      </c>
-      <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19269,7 +19265,9 @@
       <c r="I571" t="n">
         <v>18.54</v>
       </c>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19308,7 +19306,9 @@
       <c r="I572" t="n">
         <v>18.71</v>
       </c>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19347,7 +19347,9 @@
       <c r="I573" t="n">
         <v>18.9</v>
       </c>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19386,7 +19388,9 @@
       <c r="I574" t="n">
         <v>18.73</v>
       </c>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19425,7 +19429,9 @@
       <c r="I575" t="n">
         <v>18.9</v>
       </c>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19464,7 +19470,9 @@
       <c r="I576" t="n">
         <v>19.02</v>
       </c>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19498,12 +19506,12 @@
         <v>-3861174.097039845</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="J577" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19537,10 +19545,12 @@
         <v>-3931841.151039845</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19574,10 +19584,12 @@
         <v>-3909131.546128489</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19611,10 +19623,12 @@
         <v>-3909131.546128489</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19648,17 +19662,19 @@
         <v>-3884461.110012499</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>18.72</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L581" t="n">
-        <v>1</v>
+        <v>1.020641025641026</v>
       </c>
       <c r="M581" t="inlineStr"/>
     </row>
@@ -19685,15 +19701,11 @@
         <v>-3840083.055512499</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19722,15 +19734,11 @@
         <v>-3715676.218611503</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19759,15 +19767,11 @@
         <v>-3622324.283211503</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19796,15 +19800,11 @@
         <v>-3455215.326011503</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19833,15 +19833,11 @@
         <v>-3399265.512211503</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19870,15 +19866,11 @@
         <v>-3416868.355370996</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19907,15 +19899,11 @@
         <v>-3416868.355370996</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19944,15 +19932,11 @@
         <v>-3405336.712970996</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19985,12 +19969,10 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
       <c r="M590" t="inlineStr"/>
     </row>
     <row r="591">
@@ -20016,7 +19998,7 @@
         <v>-3432556.918670996</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20049,7 +20031,7 @@
         <v>-3431520.112670996</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20082,7 +20064,7 @@
         <v>-3481476.566970996</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20115,7 +20097,7 @@
         <v>-3479373.517470996</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20148,7 +20130,7 @@
         <v>-3501614.684770996</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20181,7 +20163,7 @@
         <v>-3628408.934970996</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20214,7 +20196,7 @@
         <v>-3628356.976170996</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20247,7 +20229,7 @@
         <v>-3635362.586370996</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20280,7 +20262,7 @@
         <v>-3635336.586370996</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20313,7 +20295,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20346,7 +20328,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20379,7 +20361,7 @@
         <v>-3635306.586370996</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20412,7 +20394,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20445,7 +20427,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20478,7 +20460,7 @@
         <v>-3615943.760370996</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20511,7 +20493,7 @@
         <v>-3635627.820870996</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20544,7 +20526,7 @@
         <v>-3619556.508570996</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20577,7 +20559,7 @@
         <v>-3656779.755770996</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21072,7 +21054,7 @@
         <v>-3671959.963747037</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21105,7 +21087,7 @@
         <v>-3629256.685321626</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21270,7 +21252,7 @@
         <v>-3609490.621626103</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21303,7 +21285,7 @@
         <v>-3607267.297626103</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21402,7 +21384,7 @@
         <v>-3600444.101826103</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21435,7 +21417,7 @@
         <v>-3600504.101826103</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21468,7 +21450,7 @@
         <v>-3600504.101826103</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21501,7 +21483,7 @@
         <v>-3636174.660326103</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21534,7 +21516,7 @@
         <v>-3633771.545826103</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21567,7 +21549,7 @@
         <v>-3639271.545826103</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21600,7 +21582,7 @@
         <v>-3639271.545826103</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21633,7 +21615,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21666,7 +21648,7 @@
         <v>-3410759.680926103</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21699,7 +21681,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21732,7 +21714,7 @@
         <v>-3410819.680926103</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21765,7 +21747,7 @@
         <v>-3198951.479726103</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21798,7 +21780,7 @@
         <v>-3198951.479726103</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21831,7 +21813,7 @@
         <v>-3199829.371026102</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21996,7 +21978,7 @@
         <v>-3200152.731226103</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22029,7 +22011,7 @@
         <v>-3107831.009526103</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22062,7 +22044,7 @@
         <v>-3257664.371726103</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22161,7 +22143,7 @@
         <v>-3148133.493026103</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25659,11 +25641,17 @@
         <v>-4170072.587004856</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>18.17</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25692,11 +25680,17 @@
         <v>-4170072.587004856</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>18.16</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25725,11 +25719,17 @@
         <v>-4170044.587004856</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>18.16</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25758,11 +25758,17 @@
         <v>-4170044.587004856</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>18.39</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25791,11 +25797,17 @@
         <v>-4103013.163127818</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>18.39</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25824,11 +25836,17 @@
         <v>-4074909.956312448</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>18.56</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25857,11 +25875,17 @@
         <v>-4092058.956588535</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>18.6</v>
+      </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25890,11 +25914,17 @@
         <v>-4102999.755988535</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>18.4</v>
+      </c>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25923,11 +25953,17 @@
         <v>-4103086.256888535</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>18.39</v>
+      </c>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25956,11 +25992,17 @@
         <v>-4103086.256888535</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>18.18</v>
+      </c>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25989,11 +26031,17 @@
         <v>-4103717.708988535</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>18.18</v>
+      </c>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26022,11 +26070,17 @@
         <v>-4110235.684888535</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>18.17</v>
+      </c>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26055,11 +26109,17 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>18.16</v>
+      </c>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26088,11 +26148,17 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>18.17</v>
+      </c>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26121,11 +26187,17 @@
         <v>-4109348.431088535</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>18.17</v>
+      </c>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26159,10 +26231,12 @@
       <c r="I777" t="n">
         <v>18.17</v>
       </c>
-      <c r="J777" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26191,15 +26265,15 @@
         <v>-4111902.074888535</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>18.38</v>
+      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L778" t="n">
@@ -26230,12 +26304,12 @@
         <v>-4111875.074888535</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
         <v>18.17</v>
       </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26269,12 +26343,12 @@
         <v>-4113686.020888535</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26308,12 +26382,12 @@
         <v>-4061320.276188535</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>18.19</v>
+      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26347,12 +26421,12 @@
         <v>-4037226.006688535</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26386,12 +26460,12 @@
         <v>-4037226.006688535</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26425,12 +26499,12 @@
         <v>-4037197.006688535</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26464,12 +26538,12 @@
         <v>-4031831.206521962</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26503,12 +26577,12 @@
         <v>-4031831.206521962</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26542,12 +26616,12 @@
         <v>-4031921.206521962</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26581,12 +26655,12 @@
         <v>-4031921.206521962</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26620,12 +26694,12 @@
         <v>-3894883.464853202</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26659,12 +26733,12 @@
         <v>-3690051.456753202</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26698,12 +26772,12 @@
         <v>-3636113.799957029</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26737,12 +26811,12 @@
         <v>-3580477.59310339</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26779,9 +26853,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>18.17</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26818,9 +26890,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>18.17</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26857,9 +26927,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>18.17</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26896,9 +26964,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>18.17</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26932,12 +26998,12 @@
         <v>-3426454.023648508</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>18.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26971,20 +27037,16 @@
         <v>-3415814.466330564</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>18.17</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L798" t="n">
-        <v>1</v>
-      </c>
+      <c r="L798" t="inlineStr"/>
       <c r="M798" t="inlineStr"/>
     </row>
     <row r="799">
@@ -27010,17 +27072,11 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27049,17 +27105,11 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27088,17 +27138,11 @@
         <v>-3419985.933230564</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27127,17 +27171,11 @@
         <v>-3386121.040748508</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27166,17 +27204,11 @@
         <v>-3343715.714398717</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27205,17 +27237,11 @@
         <v>-3269229.297198717</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27244,17 +27270,11 @@
         <v>-3182253.559298716</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27286,20 +27306,12 @@
         <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
-        <v>1.081406164006604</v>
-      </c>
-      <c r="M806" t="n">
-        <v>1.152375434530707</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
@@ -27918,7 +27930,7 @@
         <v>-2776232.967298717</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27951,7 +27963,7 @@
         <v>-2785335.242398717</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27984,7 +27996,7 @@
         <v>-2964925.345002544</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28248,7 +28260,7 @@
         <v>-2671354.351506371</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28281,7 +28293,7 @@
         <v>-2671354.351506371</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30030,17 +30042,11 @@
         <v>-5131021.342228957</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30069,17 +30075,11 @@
         <v>-5131021.342228957</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>17.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30112,11 +30112,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30149,11 +30145,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30186,11 +30178,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30223,11 +30211,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30260,11 +30244,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30297,11 +30277,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30334,11 +30310,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30371,11 +30343,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30408,11 +30376,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30445,11 +30409,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30482,11 +30442,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30519,11 +30475,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30556,11 +30508,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30593,11 +30541,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30630,11 +30574,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30667,11 +30607,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30704,11 +30640,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30741,11 +30673,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30778,11 +30706,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30815,11 +30739,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30852,11 +30772,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30889,11 +30805,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30926,11 +30838,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30963,11 +30871,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31000,11 +30904,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31037,11 +30937,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31074,11 +30970,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
